--- a/Forsøg/Kabelrulle 20m Ø10cm.xlsx
+++ b/Forsøg/Kabelrulle 20m Ø10cm.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$63</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,6 +24,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>Tid(min):</t>
+  </si>
+  <si>
+    <t>Start temp:</t>
+  </si>
+  <si>
+    <t>Omgivelses temp:</t>
+  </si>
+  <si>
+    <t>Midt</t>
+  </si>
+  <si>
+    <t>Side 1 lag</t>
+  </si>
+  <si>
+    <t>Side (2 lag)</t>
+  </si>
+  <si>
+    <t>Temperatur [C]</t>
+  </si>
+  <si>
+    <t>T [C]</t>
+  </si>
+  <si>
+    <t>Load [Amp]:</t>
+  </si>
+  <si>
+    <t>Spænding [V]:</t>
+  </si>
+  <si>
+    <t>Udgang</t>
+  </si>
+  <si>
+    <t>Indgang</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +94,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +403,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Forsøg/Kabelrulle 20m Ø10cm.xlsx
+++ b/Forsøg/Kabelrulle 20m Ø10cm.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$G$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ark1'!$A$1:$H$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Tid(min):</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Indgang</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -123,6 +126,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,29 +407,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="4" max="5" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,596 +443,660 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="1"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="1"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="1"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="1"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="1"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="1"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="1"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="1"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="1"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="1"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="1"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="1"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="1"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="1"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="1"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="1"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="1"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="1"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="1"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="1"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="1"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="1"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="1"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="1"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="1"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="1"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="1"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="1"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="1"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
